--- a/df_teams.xlsx
+++ b/df_teams.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>teamID</t>
   </si>
@@ -46,9 +46,6 @@
     <t>recYds</t>
   </si>
   <si>
-    <t>bubble_size</t>
-  </si>
-  <si>
     <t>22</t>
   </si>
   <si>
@@ -64,24 +61,24 @@
     <t>26</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>31</t>
   </si>
   <si>
@@ -112,12 +109,12 @@
     <t>12</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>21</t>
   </si>
   <si>
@@ -133,12 +130,12 @@
     <t>23</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>29</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>28</t>
   </si>
   <si>
@@ -160,24 +157,24 @@
     <t>PIT</t>
   </si>
   <si>
+    <t>BAL</t>
+  </si>
+  <si>
     <t>CIN</t>
   </si>
   <si>
-    <t>BAL</t>
-  </si>
-  <si>
     <t>CLE</t>
   </si>
   <si>
+    <t>JAX</t>
+  </si>
+  <si>
+    <t>HOU</t>
+  </si>
+  <si>
     <t>IND</t>
   </si>
   <si>
-    <t>JAX</t>
-  </si>
-  <si>
-    <t>HOU</t>
-  </si>
-  <si>
     <t>TEN</t>
   </si>
   <si>
@@ -208,12 +205,12 @@
     <t>GB</t>
   </si>
   <si>
+    <t>CHI</t>
+  </si>
+  <si>
     <t>DET</t>
   </si>
   <si>
-    <t>CHI</t>
-  </si>
-  <si>
     <t>MIN</t>
   </si>
   <si>
@@ -229,10 +226,10 @@
     <t>NO</t>
   </si>
   <si>
+    <t>LAR</t>
+  </si>
+  <si>
     <t>SEA</t>
-  </si>
-  <si>
-    <t>LAR</t>
   </si>
   <si>
     <t>SF</t>
@@ -596,13 +593,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -633,1224 +630,1125 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
       <c r="E2">
-        <v>901</v>
+        <v>1468</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>229</v>
+        <v>376</v>
       </c>
       <c r="H2">
-        <v>171</v>
+        <v>277</v>
       </c>
       <c r="I2">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="J2">
-        <v>220</v>
+        <v>373</v>
       </c>
       <c r="K2">
-        <v>2038</v>
-      </c>
-      <c r="L2">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>1151</v>
+        <v>2051</v>
       </c>
       <c r="F3">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>221</v>
+        <v>405</v>
       </c>
       <c r="H3">
-        <v>137</v>
+        <v>268</v>
       </c>
       <c r="I3">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J3">
-        <v>198</v>
+        <v>374</v>
       </c>
       <c r="K3">
-        <v>1614</v>
-      </c>
-      <c r="L3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>788</v>
+        <v>1644</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G4">
-        <v>177</v>
+        <v>333</v>
       </c>
       <c r="H4">
-        <v>171</v>
+        <v>250</v>
       </c>
       <c r="I4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J4">
-        <v>242</v>
+        <v>361</v>
       </c>
       <c r="K4">
-        <v>1611</v>
-      </c>
-      <c r="L4">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>1149</v>
+        <v>1669</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G5">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="H5">
-        <v>151</v>
+        <v>223</v>
       </c>
       <c r="I5">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J5">
-        <v>225</v>
+        <v>352</v>
       </c>
       <c r="K5">
-        <v>1472</v>
-      </c>
-      <c r="L5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>660</v>
+        <v>1160</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <v>162</v>
+        <v>300</v>
       </c>
       <c r="H6">
-        <v>144</v>
+        <v>263</v>
       </c>
       <c r="I6">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J6">
-        <v>198</v>
+        <v>375</v>
       </c>
       <c r="K6">
-        <v>1501</v>
-      </c>
-      <c r="L6">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>1858</v>
+      </c>
+      <c r="F7">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>663</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
       <c r="G7">
-        <v>154</v>
+        <v>370</v>
       </c>
       <c r="H7">
-        <v>182</v>
+        <v>227</v>
       </c>
       <c r="I7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J7">
-        <v>272</v>
+        <v>339</v>
       </c>
       <c r="K7">
-        <v>1730</v>
-      </c>
-      <c r="L7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>934</v>
+        <v>1124</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <v>177</v>
+        <v>266</v>
       </c>
       <c r="H8">
-        <v>129</v>
+        <v>305</v>
       </c>
       <c r="I8">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="J8">
-        <v>179</v>
+        <v>470</v>
       </c>
       <c r="K8">
-        <v>1426</v>
-      </c>
-      <c r="L8">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>716</v>
+        <v>1243</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G9">
-        <v>190</v>
+        <v>325</v>
       </c>
       <c r="H9">
-        <v>178</v>
+        <v>257</v>
       </c>
       <c r="I9">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J9">
-        <v>284</v>
+        <v>420</v>
       </c>
       <c r="K9">
-        <v>1517</v>
-      </c>
-      <c r="L9">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E10">
-        <v>1075</v>
+        <v>1582</v>
       </c>
       <c r="F10">
+        <v>17</v>
+      </c>
+      <c r="G10">
+        <v>382</v>
+      </c>
+      <c r="H10">
+        <v>254</v>
+      </c>
+      <c r="I10">
         <v>18</v>
       </c>
-      <c r="G10">
-        <v>214</v>
-      </c>
-      <c r="H10">
-        <v>174</v>
-      </c>
-      <c r="I10">
-        <v>13</v>
-      </c>
       <c r="J10">
-        <v>240</v>
+        <v>416</v>
       </c>
       <c r="K10">
-        <v>2071</v>
-      </c>
-      <c r="L10">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E11">
-        <v>838</v>
+        <v>1374</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>179</v>
+        <v>350</v>
       </c>
       <c r="H11">
-        <v>152</v>
+        <v>286</v>
       </c>
       <c r="I11">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="J11">
-        <v>252</v>
+        <v>439</v>
       </c>
       <c r="K11">
-        <v>1620</v>
-      </c>
-      <c r="L11">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E12">
-        <v>794</v>
+        <v>1702</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G12">
-        <v>186</v>
+        <v>342</v>
       </c>
       <c r="H12">
-        <v>157</v>
+        <v>280</v>
       </c>
       <c r="I12">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J12">
-        <v>229</v>
+        <v>406</v>
       </c>
       <c r="K12">
-        <v>1646</v>
-      </c>
-      <c r="L12">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>643</v>
+        <v>1104</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G13">
-        <v>164</v>
+        <v>271</v>
       </c>
       <c r="H13">
-        <v>158</v>
+        <v>260</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J13">
-        <v>253</v>
+        <v>408</v>
       </c>
       <c r="K13">
-        <v>1615</v>
-      </c>
-      <c r="L13">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E14">
-        <v>1102</v>
+        <v>1584</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G14">
-        <v>220</v>
+        <v>345</v>
       </c>
       <c r="H14">
-        <v>179</v>
+        <v>297</v>
       </c>
       <c r="I14">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J14">
-        <v>270</v>
+        <v>446</v>
       </c>
       <c r="K14">
-        <v>1803</v>
-      </c>
-      <c r="L14">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E15">
-        <v>985</v>
+        <v>1634</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G15">
-        <v>203</v>
+        <v>361</v>
       </c>
       <c r="H15">
-        <v>204</v>
+        <v>284</v>
       </c>
       <c r="I15">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J15">
-        <v>293</v>
+        <v>422</v>
       </c>
       <c r="K15">
-        <v>2184</v>
-      </c>
-      <c r="L15">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E16">
-        <v>1012</v>
+        <v>1546</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G16">
-        <v>225</v>
+        <v>352</v>
       </c>
       <c r="H16">
-        <v>189</v>
+        <v>299</v>
       </c>
       <c r="I16">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J16">
-        <v>271</v>
+        <v>447</v>
       </c>
       <c r="K16">
-        <v>2099</v>
-      </c>
-      <c r="L16">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>3398</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17">
-        <v>656</v>
+        <v>945</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>170</v>
+        <v>277</v>
       </c>
       <c r="H17">
-        <v>135</v>
+        <v>276</v>
       </c>
       <c r="I17">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J17">
-        <v>199</v>
+        <v>393</v>
       </c>
       <c r="K17">
-        <v>1425</v>
-      </c>
-      <c r="L17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E18">
-        <v>893</v>
+        <v>1436</v>
       </c>
       <c r="F18">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G18">
-        <v>218</v>
+        <v>352</v>
       </c>
       <c r="H18">
-        <v>151</v>
+        <v>247</v>
       </c>
       <c r="I18">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J18">
-        <v>207</v>
+        <v>361</v>
       </c>
       <c r="K18">
-        <v>1677</v>
-      </c>
-      <c r="L18">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E19">
-        <v>963</v>
+        <v>1553</v>
       </c>
       <c r="F19">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G19">
-        <v>206</v>
+        <v>339</v>
       </c>
       <c r="H19">
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="I19">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J19">
-        <v>294</v>
+        <v>481</v>
       </c>
       <c r="K19">
-        <v>2168</v>
-      </c>
-      <c r="L19">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
       <c r="E20">
-        <v>1102</v>
+        <v>1774</v>
       </c>
       <c r="F20">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G20">
-        <v>212</v>
+        <v>364</v>
       </c>
       <c r="H20">
-        <v>145</v>
+        <v>236</v>
       </c>
       <c r="I20">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J20">
-        <v>219</v>
+        <v>356</v>
       </c>
       <c r="K20">
-        <v>1670</v>
-      </c>
-      <c r="L20">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21">
-        <v>944</v>
+        <v>1605</v>
       </c>
       <c r="F21">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G21">
-        <v>234</v>
+        <v>389</v>
       </c>
       <c r="H21">
-        <v>151</v>
+        <v>252</v>
       </c>
       <c r="I21">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J21">
-        <v>242</v>
+        <v>393</v>
       </c>
       <c r="K21">
-        <v>1770</v>
-      </c>
-      <c r="L21">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E22">
-        <v>799</v>
+        <v>1523</v>
       </c>
       <c r="F22">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G22">
-        <v>203</v>
+        <v>376</v>
       </c>
       <c r="H22">
-        <v>151</v>
+        <v>262</v>
       </c>
       <c r="I22">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J22">
-        <v>199</v>
+        <v>365</v>
       </c>
       <c r="K22">
-        <v>1798</v>
-      </c>
-      <c r="L22">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E23">
-        <v>936</v>
+        <v>1984</v>
       </c>
       <c r="F23">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G23">
-        <v>207</v>
+        <v>406</v>
       </c>
       <c r="H23">
-        <v>153</v>
+        <v>253</v>
       </c>
       <c r="I23">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J23">
-        <v>195</v>
+        <v>408</v>
       </c>
       <c r="K23">
-        <v>1634</v>
-      </c>
-      <c r="L23">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E24">
-        <v>872</v>
+        <v>1766</v>
       </c>
       <c r="F24">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G24">
-        <v>198</v>
+        <v>353</v>
       </c>
       <c r="H24">
-        <v>140</v>
+        <v>290</v>
       </c>
       <c r="I24">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="J24">
-        <v>220</v>
+        <v>395</v>
       </c>
       <c r="K24">
-        <v>1663</v>
-      </c>
-      <c r="L24">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>3337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E25">
-        <v>657</v>
+        <v>1355</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G25">
-        <v>153</v>
+        <v>292</v>
       </c>
       <c r="H25">
-        <v>140</v>
+        <v>237</v>
       </c>
       <c r="I25">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J25">
-        <v>211</v>
+        <v>377</v>
       </c>
       <c r="K25">
-        <v>1591</v>
-      </c>
-      <c r="L25">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E26">
-        <v>785</v>
+        <v>1497</v>
       </c>
       <c r="F26">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G26">
-        <v>204</v>
+        <v>359</v>
       </c>
       <c r="H26">
-        <v>172</v>
+        <v>265</v>
       </c>
       <c r="I26">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J26">
-        <v>262</v>
+        <v>417</v>
       </c>
       <c r="K26">
-        <v>1919</v>
-      </c>
-      <c r="L26">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E27">
-        <v>1095</v>
+        <v>1631</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G27">
-        <v>236</v>
+        <v>370</v>
       </c>
       <c r="H27">
-        <v>163</v>
+        <v>255</v>
       </c>
       <c r="I27">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J27">
-        <v>245</v>
+        <v>378</v>
       </c>
       <c r="K27">
-        <v>1581</v>
-      </c>
-      <c r="L27">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E28">
-        <v>863</v>
+        <v>1607</v>
       </c>
       <c r="F28">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G28">
-        <v>196</v>
+        <v>361</v>
       </c>
       <c r="H28">
-        <v>145</v>
+        <v>250</v>
       </c>
       <c r="I28">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J28">
-        <v>227</v>
+        <v>394</v>
       </c>
       <c r="K28">
-        <v>1611</v>
-      </c>
-      <c r="L28">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E29">
-        <v>749</v>
+        <v>1227</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G29">
-        <v>198</v>
+        <v>336</v>
       </c>
       <c r="H29">
-        <v>192</v>
+        <v>295</v>
       </c>
       <c r="I29">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J29">
-        <v>279</v>
+        <v>426</v>
       </c>
       <c r="K29">
-        <v>1733</v>
-      </c>
-      <c r="L29">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E30">
-        <v>743</v>
+        <v>1611</v>
       </c>
       <c r="F30">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G30">
-        <v>202</v>
+        <v>346</v>
       </c>
       <c r="H30">
-        <v>133</v>
+        <v>288</v>
       </c>
       <c r="I30">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="J30">
-        <v>183</v>
+        <v>422</v>
       </c>
       <c r="K30">
-        <v>1769</v>
-      </c>
-      <c r="L30">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>3354</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E31">
-        <v>724</v>
+        <v>1532</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G31">
-        <v>175</v>
+        <v>385</v>
       </c>
       <c r="H31">
-        <v>160</v>
+        <v>243</v>
       </c>
       <c r="I31">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J31">
-        <v>238</v>
+        <v>339</v>
       </c>
       <c r="K31">
-        <v>1866</v>
-      </c>
-      <c r="L31">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E32">
-        <v>715</v>
+        <v>1281</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G32">
-        <v>210</v>
+        <v>366</v>
       </c>
       <c r="H32">
-        <v>197</v>
+        <v>307</v>
       </c>
       <c r="I32">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J32">
-        <v>287</v>
+        <v>429</v>
       </c>
       <c r="K32">
-        <v>2183</v>
-      </c>
-      <c r="L32">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>3298</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E33">
-        <v>773</v>
+        <v>1258</v>
       </c>
       <c r="F33">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G33">
-        <v>175</v>
+        <v>294</v>
       </c>
       <c r="H33">
-        <v>162</v>
+        <v>340</v>
       </c>
       <c r="I33">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J33">
-        <v>231</v>
+        <v>487</v>
       </c>
       <c r="K33">
-        <v>1561</v>
-      </c>
-      <c r="L33">
-        <v>300</v>
+        <v>3419</v>
       </c>
     </row>
   </sheetData>
